--- a/biology/Zoologie/Tipula_inflexa/Tipula_inflexa.xlsx
+++ b/biology/Zoologie/Tipula_inflexa/Tipula_inflexa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tipula inflexa est une espèce fossile d'insectes diptères de la famille des Tipulidae, de la sous-famille des Tipulinae et du genre Tipula.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-L'holotypes de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) fait partie de la collection de l'Institut géologique de Marseille [note 1] et vient du gypse d'Aix-en-Provence[1]. En 2023, l'holotype MNHN.F.R07709 est conservé par le muséum national d'histoire naturelle de Paris[3]
-Étymologie
-L'épithète spécifique inflexa signifie en latin « penché ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -543,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 2] : 
-« Insecte au corps brun noirâtre ; pattes grêles, finement velues ; ailes à nervation typique du g. Tipula ; ailes immaculées ; abdomen cylindrique.[1]. »
-Dimensions
-La longueur totale est de 10,5 mm, la tête a une longueur de 1,2 mm et une largeur de 1,2 mm, le thorax a une longueur de 2,6 mm et une largeur de 2 mm, l'abdomen a une longueur de 6,8 mm et une largeur de 1,2 mm, les ailes une longueur de 12 mm et une largeur de 3 mm, les balanciers une longueur de 1,5 mm[1].
-Affinités
-« Taille nettement inférieure aux formes précédentes et à celles de Célas ou de Kleinkembs. »[1].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotypes de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) fait partie de la collection de l'Institut géologique de Marseille [note 1] et vient du gypse d'Aix-en-Provence. En 2023, l'holotype MNHN.F.R07709 est conservé par le muséum national d'histoire naturelle de Paris
 </t>
         </is>
       </c>
@@ -580,13 +590,166 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique inflexa signifie en latin « penché ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tipula_inflexa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tipula_inflexa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 2] : 
+« Insecte au corps brun noirâtre ; pattes grêles, finement velues ; ailes à nervation typique du g. Tipula ; ailes immaculées ; abdomen cylindrique.. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tipula_inflexa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tipula_inflexa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 10,5 mm, la tête a une longueur de 1,2 mm et une largeur de 1,2 mm, le thorax a une longueur de 2,6 mm et une largeur de 2 mm, l'abdomen a une longueur de 6,8 mm et une largeur de 1,2 mm, les ailes une longueur de 12 mm et une largeur de 3 mm, les balanciers une longueur de 1,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tipula_inflexa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tipula_inflexa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Taille nettement inférieure aux formes précédentes et à celles de Célas ou de Kleinkembs. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tipula_inflexa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tipula_inflexa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Les Tipules vivent dans les prairies, les marais, les bois humides. Un minimum d'humidité du sol est nécessaire au développement des larves. Ce genre est universellement répandu. »[4].
+« Les Tipules vivent dans les prairies, les marais, les bois humides. Un minimum d'humidité du sol est nécessaire au développement des larves. Ce genre est universellement répandu. ».
 </t>
         </is>
       </c>
